--- a/nurs_data_reference/tests/test_files/column_descriptions.xlsx
+++ b/nurs_data_reference/tests/test_files/column_descriptions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Notes</t>
   </si>
@@ -31,6 +31,15 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Found In</t>
+  </si>
+  <si>
+    <t>Data1</t>
+  </si>
+  <si>
+    <t>Data1\nData2</t>
   </si>
 </sst>
 </file>
@@ -89,11 +98,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,23 +408,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -424,8 +437,11 @@
       <c r="C2">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -434,6 +450,9 @@
       </c>
       <c r="C3">
         <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
